--- a/file/standard/学工_业务线数据元素映射.xlsx
+++ b/file/standard/学工_业务线数据元素映射.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh\PycharmProjects\realOne\file\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BB292D-F40E-42F5-B6F2-A8A7E870449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B3950F-DC43-4371-9307-C4D445FCD9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C47772C2-13C1-694B-A268-2E1C99A48B7A}"/>
   </bookViews>
@@ -3226,7 +3226,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属表</t>
+    <t>表/视图名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3759,7 +3759,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
